--- a/REGULAR/CCR/BUGARIN, MA. ANA.xlsx
+++ b/REGULAR/CCR/BUGARIN, MA. ANA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F22D4C-FCA7-41F5-A67B-4005FD091621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="316">
   <si>
     <t>PERIOD</t>
   </si>
@@ -976,12 +977,18 @@
   </si>
   <si>
     <t>12/13,14,18,20,27/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1855,7 +1862,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,7 +1905,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1962,7 +1969,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2022,7 +2029,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2088,7 +2095,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2158,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +2256,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2315,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2380,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2416,7 +2423,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,7 +2498,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2677,7 +2684,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2743,7 +2750,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2808,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2867,7 +2874,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2923,7 +2930,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2998,7 +3005,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3041,7 +3048,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3107,7 +3114,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3163,7 +3170,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3261,7 +3268,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3324,7 +3331,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3373,7 +3380,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3390,25 +3397,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K502" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K523" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3420,13 +3427,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3435,14 +3442,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3746,7 +3753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3756,7 +3763,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3764,34 +3771,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K502"/>
+  <dimension ref="A2:K523"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="3495" topLeftCell="A482" activePane="bottomLeft"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="3492" topLeftCell="A498" activePane="bottomLeft"/>
       <selection activeCell="F8" sqref="F8"/>
-      <selection pane="bottomLeft" activeCell="K499" sqref="K499"/>
+      <selection pane="bottomLeft" activeCell="C505" sqref="C505"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3812,7 +3819,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3830,7 +3837,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3852,7 +3859,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3860,7 +3867,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3873,7 +3880,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3890,7 +3897,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3925,7 +3932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3934,7 +3941,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>87.698999999999955</v>
+        <v>88.948999999999955</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3944,12 +3951,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>190.375</v>
+        <v>191.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>45</v>
       </c>
@@ -3971,7 +3978,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>34884</v>
       </c>
@@ -3991,7 +3998,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>34912</v>
       </c>
@@ -4011,7 +4018,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>34943</v>
@@ -4032,7 +4039,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A90" si="0">EDATE(A13,1)</f>
         <v>34973</v>
@@ -4053,7 +4060,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>35004</v>
@@ -4074,7 +4081,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>35034</v>
@@ -4095,7 +4102,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
         <v>46</v>
       </c>
@@ -4113,7 +4120,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f>EDATE(A16,1)</f>
         <v>35065</v>
@@ -4134,7 +4141,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>35096</v>
@@ -4155,7 +4162,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>35125</v>
@@ -4176,7 +4183,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>35156</v>
@@ -4203,7 +4210,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f t="shared" si="0"/>
         <v>35186</v>
@@ -4224,7 +4231,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <f t="shared" si="0"/>
         <v>35217</v>
@@ -4245,7 +4252,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f t="shared" si="0"/>
         <v>35247</v>
@@ -4266,7 +4273,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f t="shared" si="0"/>
         <v>35278</v>
@@ -4287,7 +4294,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <f t="shared" si="0"/>
         <v>35309</v>
@@ -4314,7 +4321,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f t="shared" si="0"/>
         <v>35339</v>
@@ -4335,7 +4342,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>35370</v>
@@ -4362,7 +4369,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f t="shared" si="0"/>
         <v>35400</v>
@@ -4387,7 +4394,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="46" t="s">
         <v>54</v>
       </c>
@@ -4405,7 +4412,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f>EDATE(A29,1)</f>
         <v>35431</v>
@@ -4432,7 +4439,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f t="shared" si="0"/>
         <v>35462</v>
@@ -4453,7 +4460,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f t="shared" si="0"/>
         <v>35490</v>
@@ -4480,7 +4487,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>62</v>
@@ -4502,7 +4509,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>35521</v>
@@ -4523,7 +4530,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -4544,7 +4551,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f>EDATE(A36,1)</f>
         <v>35582</v>
@@ -4571,7 +4578,7 @@
         <v>35590</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>66</v>
@@ -4593,7 +4600,7 @@
         <v>35594</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f>EDATE(A37,1)</f>
         <v>35612</v>
@@ -4620,7 +4627,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>59</v>
@@ -4642,7 +4649,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f>EDATE(A39,1)</f>
         <v>35643</v>
@@ -4667,7 +4674,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f t="shared" si="0"/>
         <v>35674</v>
@@ -4694,7 +4701,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f t="shared" si="0"/>
         <v>35704</v>
@@ -4721,7 +4728,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>72</v>
@@ -4743,7 +4750,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f>EDATE(A43,1)</f>
         <v>35735</v>
@@ -4770,7 +4777,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -4797,7 +4804,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>76</v>
@@ -4817,7 +4824,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="46" t="s">
         <v>55</v>
       </c>
@@ -4835,7 +4842,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f>EDATE(A46,1)</f>
         <v>35796</v>
@@ -4862,7 +4869,7 @@
         <v>35818</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f t="shared" si="0"/>
         <v>35827</v>
@@ -4889,7 +4896,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="0"/>
         <v>35855</v>
@@ -4916,7 +4923,7 @@
         <v>35874</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f t="shared" si="0"/>
         <v>35886</v>
@@ -4943,7 +4950,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f t="shared" si="0"/>
         <v>35916</v>
@@ -4970,7 +4977,7 @@
         <v>35919</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>65</v>
@@ -4992,7 +4999,7 @@
         <v>35930</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>59</v>
@@ -5014,7 +5021,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f>EDATE(A53,1)</f>
         <v>35947</v>
@@ -5041,7 +5048,7 @@
         <v>35975</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f t="shared" si="0"/>
         <v>35977</v>
@@ -5068,7 +5075,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f t="shared" si="0"/>
         <v>36008</v>
@@ -5095,7 +5102,7 @@
         <v>36019</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>69</v>
@@ -5115,7 +5122,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f>EDATE(A58,1)</f>
         <v>36039</v>
@@ -5142,7 +5149,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f t="shared" si="0"/>
         <v>36069</v>
@@ -5163,7 +5170,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <f t="shared" si="0"/>
         <v>36100</v>
@@ -5184,7 +5191,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f t="shared" si="0"/>
         <v>36130</v>
@@ -5209,7 +5216,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="46" t="s">
         <v>56</v>
       </c>
@@ -5227,7 +5234,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f>EDATE(A63,1)</f>
         <v>36161</v>
@@ -5248,7 +5255,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f t="shared" si="0"/>
         <v>36192</v>
@@ -5269,7 +5276,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f t="shared" si="0"/>
         <v>36220</v>
@@ -5290,7 +5297,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f t="shared" si="0"/>
         <v>36251</v>
@@ -5311,7 +5318,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f t="shared" si="0"/>
         <v>36281</v>
@@ -5332,7 +5339,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f t="shared" si="0"/>
         <v>36312</v>
@@ -5353,7 +5360,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <f t="shared" si="0"/>
         <v>36342</v>
@@ -5374,7 +5381,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -5399,7 +5406,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f t="shared" si="0"/>
         <v>36404</v>
@@ -5420,7 +5427,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <f t="shared" si="0"/>
         <v>36434</v>
@@ -5441,7 +5448,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f t="shared" si="0"/>
         <v>36465</v>
@@ -5462,7 +5469,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <f t="shared" si="0"/>
         <v>36495</v>
@@ -5489,7 +5496,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>86</v>
@@ -5509,7 +5516,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="46" t="s">
         <v>57</v>
       </c>
@@ -5527,7 +5534,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f>EDATE(A76,1)</f>
         <v>36526</v>
@@ -5548,7 +5555,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f t="shared" si="0"/>
         <v>36557</v>
@@ -5569,7 +5576,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f t="shared" si="0"/>
         <v>36586</v>
@@ -5590,7 +5597,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <f t="shared" si="0"/>
         <v>36617</v>
@@ -5615,7 +5622,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f t="shared" si="0"/>
         <v>36647</v>
@@ -5640,7 +5647,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f t="shared" si="0"/>
         <v>36678</v>
@@ -5665,7 +5672,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f t="shared" si="0"/>
         <v>36708</v>
@@ -5686,7 +5693,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f t="shared" si="0"/>
         <v>36739</v>
@@ -5707,7 +5714,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <f t="shared" si="0"/>
         <v>36770</v>
@@ -5728,7 +5735,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f t="shared" si="0"/>
         <v>36800</v>
@@ -5749,7 +5756,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f t="shared" si="0"/>
         <v>36831</v>
@@ -5776,7 +5783,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f t="shared" si="0"/>
         <v>36861</v>
@@ -5801,7 +5808,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="46" t="s">
         <v>58</v>
       </c>
@@ -5819,7 +5826,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f>EDATE(A90,1)</f>
         <v>36892</v>
@@ -5840,7 +5847,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f t="shared" ref="A93:A156" si="1">EDATE(A92,1)</f>
         <v>36923</v>
@@ -5861,7 +5868,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f t="shared" si="1"/>
         <v>36951</v>
@@ -5886,7 +5893,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" si="1"/>
         <v>36982</v>
@@ -5907,7 +5914,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="1"/>
         <v>37012</v>
@@ -5932,7 +5939,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="1"/>
         <v>37043</v>
@@ -5957,7 +5964,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f t="shared" si="1"/>
         <v>37073</v>
@@ -5978,7 +5985,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f t="shared" si="1"/>
         <v>37104</v>
@@ -6003,7 +6010,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f t="shared" si="1"/>
         <v>37135</v>
@@ -6028,7 +6035,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f t="shared" si="1"/>
         <v>37165</v>
@@ -6053,7 +6060,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f t="shared" si="1"/>
         <v>37196</v>
@@ -6080,7 +6087,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>95</v>
@@ -6100,7 +6107,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f>EDATE(A102,1)</f>
         <v>37226</v>
@@ -6125,7 +6132,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="46" t="s">
         <v>91</v>
       </c>
@@ -6143,7 +6150,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f>EDATE(A104,1)</f>
         <v>37257</v>
@@ -6164,7 +6171,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f t="shared" si="1"/>
         <v>37288</v>
@@ -6189,7 +6196,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f t="shared" si="1"/>
         <v>37316</v>
@@ -6210,7 +6217,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f t="shared" si="1"/>
         <v>37347</v>
@@ -6235,7 +6242,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f t="shared" si="1"/>
         <v>37377</v>
@@ -6260,7 +6267,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f t="shared" si="1"/>
         <v>37408</v>
@@ -6281,7 +6288,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f t="shared" si="1"/>
         <v>37438</v>
@@ -6306,7 +6313,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f t="shared" si="1"/>
         <v>37469</v>
@@ -6331,7 +6338,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <f t="shared" si="1"/>
         <v>37500</v>
@@ -6356,7 +6363,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f t="shared" si="1"/>
         <v>37530</v>
@@ -6381,7 +6388,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f t="shared" si="1"/>
         <v>37561</v>
@@ -6406,7 +6413,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f t="shared" si="1"/>
         <v>37591</v>
@@ -6431,7 +6438,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>106</v>
@@ -6451,7 +6458,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>107</v>
@@ -6471,7 +6478,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="46" t="s">
         <v>99</v>
       </c>
@@ -6489,7 +6496,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f>EDATE(A117,1)</f>
         <v>37622</v>
@@ -6510,7 +6517,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f t="shared" si="1"/>
         <v>37653</v>
@@ -6531,7 +6538,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f t="shared" si="1"/>
         <v>37681</v>
@@ -6552,7 +6559,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f t="shared" si="1"/>
         <v>37712</v>
@@ -6573,7 +6580,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f t="shared" si="1"/>
         <v>37742</v>
@@ -6594,7 +6601,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f t="shared" si="1"/>
         <v>37773</v>
@@ -6615,7 +6622,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f t="shared" si="1"/>
         <v>37803</v>
@@ -6636,7 +6643,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f t="shared" si="1"/>
         <v>37834</v>
@@ -6657,7 +6664,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" si="1"/>
         <v>37865</v>
@@ -6684,7 +6691,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f t="shared" si="1"/>
         <v>37895</v>
@@ -6705,7 +6712,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f t="shared" si="1"/>
         <v>37926</v>
@@ -6732,7 +6739,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f t="shared" si="1"/>
         <v>37956</v>
@@ -6753,7 +6760,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="46" t="s">
         <v>108</v>
       </c>
@@ -6771,7 +6778,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f>EDATE(A132,1)</f>
         <v>37987</v>
@@ -6792,7 +6799,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f t="shared" si="1"/>
         <v>38018</v>
@@ -6813,7 +6820,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f t="shared" si="1"/>
         <v>38047</v>
@@ -6834,7 +6841,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f t="shared" si="1"/>
         <v>38078</v>
@@ -6855,7 +6862,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f t="shared" si="1"/>
         <v>38108</v>
@@ -6876,7 +6883,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f t="shared" si="1"/>
         <v>38139</v>
@@ -6897,7 +6904,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f t="shared" si="1"/>
         <v>38169</v>
@@ -6918,7 +6925,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f t="shared" si="1"/>
         <v>38200</v>
@@ -6939,7 +6946,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f t="shared" si="1"/>
         <v>38231</v>
@@ -6960,7 +6967,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f t="shared" si="1"/>
         <v>38261</v>
@@ -6981,7 +6988,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="1"/>
         <v>38292</v>
@@ -7008,7 +7015,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="1"/>
         <v>38322</v>
@@ -7029,7 +7036,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="46" t="s">
         <v>109</v>
       </c>
@@ -7047,7 +7054,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f>EDATE(A145,1)</f>
         <v>38353</v>
@@ -7074,7 +7081,7 @@
         <v>38397</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f t="shared" si="1"/>
         <v>38384</v>
@@ -7095,7 +7102,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <f t="shared" si="1"/>
         <v>38412</v>
@@ -7122,7 +7129,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f t="shared" si="1"/>
         <v>38443</v>
@@ -7143,7 +7150,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f t="shared" si="1"/>
         <v>38473</v>
@@ -7164,7 +7171,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f t="shared" si="1"/>
         <v>38504</v>
@@ -7185,7 +7192,7 @@
       <c r="J152" s="12"/>
       <c r="K152" s="15"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <f t="shared" si="1"/>
         <v>38534</v>
@@ -7206,7 +7213,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f t="shared" si="1"/>
         <v>38565</v>
@@ -7227,7 +7234,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f t="shared" si="1"/>
         <v>38596</v>
@@ -7248,7 +7255,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <f t="shared" si="1"/>
         <v>38626</v>
@@ -7269,7 +7276,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <f t="shared" ref="A157:A222" si="2">EDATE(A156,1)</f>
         <v>38657</v>
@@ -7290,7 +7297,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <f t="shared" si="2"/>
         <v>38687</v>
@@ -7315,7 +7322,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="46" t="s">
         <v>114</v>
       </c>
@@ -7333,7 +7340,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f>EDATE(A158,1)</f>
         <v>38718</v>
@@ -7354,7 +7361,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f t="shared" si="2"/>
         <v>38749</v>
@@ -7375,7 +7382,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f t="shared" si="2"/>
         <v>38777</v>
@@ -7396,7 +7403,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <f t="shared" si="2"/>
         <v>38808</v>
@@ -7417,7 +7424,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <f t="shared" si="2"/>
         <v>38838</v>
@@ -7438,7 +7445,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f t="shared" si="2"/>
         <v>38869</v>
@@ -7459,7 +7466,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f t="shared" si="2"/>
         <v>38899</v>
@@ -7480,7 +7487,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f t="shared" si="2"/>
         <v>38930</v>
@@ -7501,7 +7508,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f t="shared" si="2"/>
         <v>38961</v>
@@ -7522,7 +7529,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <f t="shared" si="2"/>
         <v>38991</v>
@@ -7549,7 +7556,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>59</v>
@@ -7571,7 +7578,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f>EDATE(A169,1)</f>
         <v>39022</v>
@@ -7598,7 +7605,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f t="shared" si="2"/>
         <v>39052</v>
@@ -7619,7 +7626,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="46" t="s">
         <v>115</v>
       </c>
@@ -7637,7 +7644,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <f>EDATE(A172,1)</f>
         <v>39083</v>
@@ -7664,7 +7671,7 @@
         <v>39084</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>65</v>
@@ -7686,7 +7693,7 @@
         <v>39099</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <f>EDATE(A174,1)</f>
         <v>39114</v>
@@ -7707,7 +7714,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <f t="shared" si="2"/>
         <v>39142</v>
@@ -7734,7 +7741,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>122</v>
@@ -7756,7 +7763,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f>EDATE(A177,1)</f>
         <v>39173</v>
@@ -7783,7 +7790,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f t="shared" si="2"/>
         <v>39203</v>
@@ -7804,7 +7811,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f t="shared" si="2"/>
         <v>39234</v>
@@ -7825,7 +7832,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f t="shared" si="2"/>
         <v>39264</v>
@@ -7846,7 +7853,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f t="shared" si="2"/>
         <v>39295</v>
@@ -7867,7 +7874,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <f t="shared" si="2"/>
         <v>39326</v>
@@ -7894,7 +7901,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <f t="shared" si="2"/>
         <v>39356</v>
@@ -7915,7 +7922,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f t="shared" si="2"/>
         <v>39387</v>
@@ -7942,7 +7949,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f t="shared" si="2"/>
         <v>39417</v>
@@ -7963,7 +7970,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="46" t="s">
         <v>128</v>
       </c>
@@ -7981,7 +7988,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f>EDATE(A187,1)</f>
         <v>39448</v>
@@ -8002,7 +8009,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f t="shared" si="2"/>
         <v>39479</v>
@@ -8029,7 +8036,7 @@
         <v>39498</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <f t="shared" si="2"/>
         <v>39508</v>
@@ -8056,7 +8063,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f t="shared" si="2"/>
         <v>39539</v>
@@ -8077,7 +8084,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f t="shared" si="2"/>
         <v>39569</v>
@@ -8098,7 +8105,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f t="shared" si="2"/>
         <v>39600</v>
@@ -8119,7 +8126,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f t="shared" si="2"/>
         <v>39630</v>
@@ -8140,7 +8147,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <f t="shared" si="2"/>
         <v>39661</v>
@@ -8161,7 +8168,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <f t="shared" si="2"/>
         <v>39692</v>
@@ -8182,7 +8189,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f t="shared" si="2"/>
         <v>39722</v>
@@ -8203,7 +8210,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <f t="shared" si="2"/>
         <v>39753</v>
@@ -8230,7 +8237,7 @@
         <v>39776</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f t="shared" si="2"/>
         <v>39783</v>
@@ -8257,7 +8264,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="46" t="s">
         <v>129</v>
       </c>
@@ -8275,7 +8282,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <f>EDATE(A200,1)</f>
         <v>39814</v>
@@ -8296,7 +8303,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <f t="shared" si="2"/>
         <v>39845</v>
@@ -8317,7 +8324,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <f t="shared" si="2"/>
         <v>39873</v>
@@ -8344,7 +8351,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f t="shared" si="2"/>
         <v>39904</v>
@@ -8365,7 +8372,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <f t="shared" si="2"/>
         <v>39934</v>
@@ -8392,7 +8399,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <f t="shared" si="2"/>
         <v>39965</v>
@@ -8413,7 +8420,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <f t="shared" si="2"/>
         <v>39995</v>
@@ -8434,7 +8441,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <f t="shared" si="2"/>
         <v>40026</v>
@@ -8455,7 +8462,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <f t="shared" si="2"/>
         <v>40057</v>
@@ -8476,7 +8483,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f t="shared" si="2"/>
         <v>40087</v>
@@ -8503,7 +8510,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <f t="shared" si="2"/>
         <v>40118</v>
@@ -8530,7 +8537,7 @@
         <v>40122</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f t="shared" si="2"/>
         <v>40148</v>
@@ -8557,7 +8564,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="46" t="s">
         <v>136</v>
       </c>
@@ -8575,7 +8582,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f>EDATE(A213,1)</f>
         <v>40179</v>
@@ -8596,7 +8603,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <f t="shared" si="2"/>
         <v>40210</v>
@@ -8617,7 +8624,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <f t="shared" si="2"/>
         <v>40238</v>
@@ -8638,7 +8645,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f t="shared" si="2"/>
         <v>40269</v>
@@ -8659,7 +8666,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <f t="shared" si="2"/>
         <v>40299</v>
@@ -8680,7 +8687,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f t="shared" si="2"/>
         <v>40330</v>
@@ -8707,7 +8714,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <f t="shared" si="2"/>
         <v>40360</v>
@@ -8728,7 +8735,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f t="shared" si="2"/>
         <v>40391</v>
@@ -8749,7 +8756,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f t="shared" ref="A223:A296" si="3">EDATE(A222,1)</f>
         <v>40422</v>
@@ -8776,7 +8783,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>59</v>
@@ -8798,7 +8805,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <f>EDATE(A223,1)</f>
         <v>40452</v>
@@ -8819,7 +8826,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f t="shared" si="3"/>
         <v>40483</v>
@@ -8846,7 +8853,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f t="shared" si="3"/>
         <v>40513</v>
@@ -8867,7 +8874,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="46" t="s">
         <v>137</v>
       </c>
@@ -8885,7 +8892,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <f>EDATE(A227,1)</f>
         <v>40544</v>
@@ -8912,7 +8919,7 @@
         <v>40574</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f t="shared" si="3"/>
         <v>40575</v>
@@ -8933,7 +8940,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f t="shared" si="3"/>
         <v>40603</v>
@@ -8954,7 +8961,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <f t="shared" si="3"/>
         <v>40634</v>
@@ -8981,7 +8988,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <f t="shared" si="3"/>
         <v>40664</v>
@@ -9008,7 +9015,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>59</v>
@@ -9030,7 +9037,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f>EDATE(A233,1)</f>
         <v>40695</v>
@@ -9051,7 +9058,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f t="shared" si="3"/>
         <v>40725</v>
@@ -9072,7 +9079,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <f t="shared" si="3"/>
         <v>40756</v>
@@ -9093,7 +9100,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <f t="shared" si="3"/>
         <v>40787</v>
@@ -9118,7 +9125,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <f t="shared" si="3"/>
         <v>40817</v>
@@ -9145,7 +9152,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f t="shared" si="3"/>
         <v>40848</v>
@@ -9172,7 +9179,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>112</v>
@@ -9194,7 +9201,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>154</v>
@@ -9214,7 +9221,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f>EDATE(A240,1)</f>
         <v>40878</v>
@@ -9235,7 +9242,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="46" t="s">
         <v>142</v>
       </c>
@@ -9253,7 +9260,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>40909</v>
@@ -9280,7 +9287,7 @@
         <v>40921</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f t="shared" si="3"/>
         <v>40940</v>
@@ -9307,7 +9314,7 @@
         <v>40956</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <f t="shared" si="3"/>
         <v>40969</v>
@@ -9334,7 +9341,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>122</v>
@@ -9356,7 +9363,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <f>EDATE(A247,1)</f>
         <v>41000</v>
@@ -9377,7 +9384,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f t="shared" si="3"/>
         <v>41030</v>
@@ -9404,7 +9411,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f t="shared" si="3"/>
         <v>41061</v>
@@ -9425,7 +9432,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f t="shared" si="3"/>
         <v>41091</v>
@@ -9452,7 +9459,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>65</v>
@@ -9474,7 +9481,7 @@
         <v>41117</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f>EDATE(A252,1)</f>
         <v>41122</v>
@@ -9501,7 +9508,7 @@
         <v>41135</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>159</v>
@@ -9521,7 +9528,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>41153</v>
@@ -9548,7 +9555,7 @@
         <v>41179</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>59</v>
@@ -9570,7 +9577,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>160</v>
@@ -9590,7 +9597,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <f>EDATE(A256,1)</f>
         <v>41183</v>
@@ -9617,7 +9624,7 @@
         <v>41212</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>162</v>
@@ -9637,7 +9644,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f>EDATE(A259,1)</f>
         <v>41214</v>
@@ -9664,7 +9671,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>112</v>
@@ -9686,7 +9693,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>163</v>
@@ -9706,7 +9713,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A261,1)</f>
         <v>41244</v>
@@ -9731,7 +9738,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="46" t="s">
         <v>143</v>
       </c>
@@ -9749,7 +9756,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f>EDATE(A264,1)</f>
         <v>41275</v>
@@ -9776,7 +9783,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>167</v>
@@ -9796,7 +9803,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <f>EDATE(A266,1)</f>
         <v>41306</v>
@@ -9817,7 +9824,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <f t="shared" si="3"/>
         <v>41334</v>
@@ -9844,7 +9851,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>116</v>
@@ -9866,7 +9873,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f>EDATE(A269,1)</f>
         <v>41365</v>
@@ -9891,7 +9898,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f t="shared" si="3"/>
         <v>41395</v>
@@ -9918,7 +9925,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>59</v>
@@ -9940,7 +9947,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>172</v>
@@ -9960,7 +9967,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <f>EDATE(A272,1)</f>
         <v>41426</v>
@@ -9985,7 +9992,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <f t="shared" si="3"/>
         <v>41456</v>
@@ -10012,7 +10019,7 @@
         <v>41463</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>65</v>
@@ -10034,7 +10041,7 @@
         <v>41474</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>92</v>
@@ -10054,7 +10061,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <f>EDATE(A276,1)</f>
         <v>41487</v>
@@ -10079,7 +10086,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>176</v>
@@ -10099,7 +10106,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <f>EDATE(A279,1)</f>
         <v>41518</v>
@@ -10126,7 +10133,7 @@
         <v>41526</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>178</v>
@@ -10146,7 +10153,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <f>EDATE(A281,1)</f>
         <v>41548</v>
@@ -10173,7 +10180,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>180</v>
@@ -10193,7 +10200,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <f>EDATE(A283,1)</f>
         <v>41579</v>
@@ -10218,7 +10225,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f t="shared" si="3"/>
         <v>41609</v>
@@ -10245,7 +10252,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>183</v>
@@ -10265,7 +10272,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="46" t="s">
         <v>144</v>
       </c>
@@ -10283,7 +10290,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f>EDATE(A286,1)</f>
         <v>41640</v>
@@ -10308,7 +10315,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <f t="shared" si="3"/>
         <v>41671</v>
@@ -10333,7 +10340,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <f t="shared" si="3"/>
         <v>41699</v>
@@ -10360,7 +10367,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>187</v>
@@ -10380,7 +10387,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <f>EDATE(A291,1)</f>
         <v>41730</v>
@@ -10407,7 +10414,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>189</v>
@@ -10427,7 +10434,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <f>EDATE(A293,1)</f>
         <v>41760</v>
@@ -10452,7 +10459,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <f t="shared" si="3"/>
         <v>41791</v>
@@ -10479,7 +10486,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>95</v>
@@ -10499,7 +10506,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <f>EDATE(A296,1)</f>
         <v>41821</v>
@@ -10524,7 +10531,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>192</v>
@@ -10544,7 +10551,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <f>EDATE(A298,1)</f>
         <v>41852</v>
@@ -10571,7 +10578,7 @@
         <v>41866</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>194</v>
@@ -10591,7 +10598,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="47"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <f>EDATE(A300,1)</f>
         <v>41883</v>
@@ -10618,7 +10625,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>195</v>
@@ -10638,7 +10645,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <f>EDATE(A302,1)</f>
         <v>41913</v>
@@ -10665,7 +10672,7 @@
         <v>41915</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>59</v>
@@ -10687,7 +10694,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>197</v>
@@ -10707,7 +10714,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <f>EDATE(A304,1)</f>
         <v>41944</v>
@@ -10734,7 +10741,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>199</v>
@@ -10754,7 +10761,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <f>EDATE(A307,1)</f>
         <v>41974</v>
@@ -10779,7 +10786,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="46" t="s">
         <v>145</v>
       </c>
@@ -10797,7 +10804,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <f>EDATE(A309,1)</f>
         <v>42005</v>
@@ -10824,7 +10831,7 @@
         <v>41648</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>59</v>
@@ -10846,7 +10853,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>203</v>
@@ -10866,7 +10873,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <f>EDATE(A311,1)</f>
         <v>42036</v>
@@ -10893,7 +10900,7 @@
         <v>42060</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>205</v>
@@ -10913,7 +10920,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="47"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f>EDATE(A314,1)</f>
         <v>42064</v>
@@ -10940,7 +10947,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>207</v>
@@ -10960,7 +10967,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f>EDATE(A316,1)</f>
         <v>42095</v>
@@ -10987,7 +10994,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>65</v>
@@ -11009,7 +11016,7 @@
         <v>42124</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>122</v>
@@ -11031,7 +11038,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>210</v>
@@ -11051,7 +11058,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f>EDATE(A318,1)</f>
         <v>42125</v>
@@ -11078,7 +11085,7 @@
         <v>42132</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>211</v>
@@ -11098,7 +11105,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <f>EDATE(A322,1)</f>
         <v>42156</v>
@@ -11123,7 +11130,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f t="shared" ref="A325:A405" si="4">EDATE(A324,1)</f>
         <v>42186</v>
@@ -11148,7 +11155,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <f t="shared" si="4"/>
         <v>42217</v>
@@ -11175,7 +11182,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>215</v>
@@ -11195,7 +11202,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="47"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <f>EDATE(A326,1)</f>
         <v>42248</v>
@@ -11222,7 +11229,7 @@
         <v>42268</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>216</v>
@@ -11242,7 +11249,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <f>EDATE(A328,1)</f>
         <v>42278</v>
@@ -11269,7 +11276,7 @@
         <v>42300</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>59</v>
@@ -11291,7 +11298,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>217</v>
@@ -11311,7 +11318,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f>EDATE(A330,1)</f>
         <v>42309</v>
@@ -11338,7 +11345,7 @@
         <v>42326</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>59</v>
@@ -11360,7 +11367,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>59</v>
@@ -11382,7 +11389,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>66</v>
@@ -11404,7 +11411,7 @@
         <v>42348</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>62</v>
@@ -11426,7 +11433,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>219</v>
@@ -11446,7 +11453,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <f>EDATE(A333,1)</f>
         <v>42339</v>
@@ -11471,7 +11478,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="46" t="s">
         <v>201</v>
       </c>
@@ -11489,7 +11496,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>42370</v>
@@ -11516,7 +11523,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>59</v>
@@ -11538,7 +11545,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>65</v>
@@ -11560,7 +11567,7 @@
         <v>42394</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>224</v>
@@ -11580,7 +11587,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <f>EDATE(A341,1)</f>
         <v>42401</v>
@@ -11607,7 +11614,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>65</v>
@@ -11629,7 +11636,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>228</v>
@@ -11649,7 +11656,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="47"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <f>EDATE(A345,1)</f>
         <v>42430</v>
@@ -11676,7 +11683,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>65</v>
@@ -11698,7 +11705,7 @@
         <v>42443</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>230</v>
@@ -11718,7 +11725,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <f>EDATE(A348,1)</f>
         <v>42461</v>
@@ -11745,7 +11752,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>231</v>
@@ -11765,7 +11772,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <f>EDATE(A351,1)</f>
         <v>42491</v>
@@ -11792,7 +11799,7 @@
         <v>42500</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>232</v>
@@ -11812,7 +11819,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <f>EDATE(A353,1)</f>
         <v>42522</v>
@@ -11839,7 +11846,7 @@
         <v>42541</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>233</v>
@@ -11859,7 +11866,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="47"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <f>EDATE(A355,1)</f>
         <v>42552</v>
@@ -11886,7 +11893,7 @@
         <v>42571</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>234</v>
@@ -11906,7 +11913,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="47"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <f>EDATE(A357,1)</f>
         <v>42583</v>
@@ -11933,7 +11940,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>59</v>
@@ -11955,7 +11962,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>235</v>
@@ -11975,7 +11982,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <f>EDATE(A359,1)</f>
         <v>42614</v>
@@ -12000,7 +12007,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <f t="shared" si="4"/>
         <v>42644</v>
@@ -12027,7 +12034,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>65</v>
@@ -12049,7 +12056,7 @@
         <v>42660</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>65</v>
@@ -12071,7 +12078,7 @@
         <v>42678</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>214</v>
@@ -12091,7 +12098,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="47"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <f>EDATE(A363,1)</f>
         <v>42675</v>
@@ -12118,7 +12125,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>59</v>
@@ -12140,7 +12147,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>240</v>
@@ -12162,7 +12169,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>241</v>
@@ -12182,7 +12189,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <f>EDATE(A367,1)</f>
         <v>42705</v>
@@ -12209,7 +12216,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>244</v>
@@ -12229,7 +12236,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="46" t="s">
         <v>202</v>
       </c>
@@ -12247,7 +12254,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f>EDATE(A371,1)</f>
         <v>42736</v>
@@ -12274,7 +12281,7 @@
         <v>42744</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>66</v>
@@ -12296,7 +12303,7 @@
         <v>42753</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>249</v>
@@ -12316,7 +12323,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f>EDATE(A374,1)</f>
         <v>42767</v>
@@ -12343,7 +12350,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>65</v>
@@ -12365,7 +12372,7 @@
         <v>42800</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>250</v>
@@ -12385,7 +12392,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <f>EDATE(A377,1)</f>
         <v>42795</v>
@@ -12410,7 +12417,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <f t="shared" si="4"/>
         <v>42826</v>
@@ -12437,7 +12444,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>253</v>
@@ -12457,7 +12464,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <f>EDATE(A381,1)</f>
         <v>42856</v>
@@ -12484,7 +12491,7 @@
         <v>42870</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>65</v>
@@ -12506,7 +12513,7 @@
         <v>42884</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>98</v>
@@ -12526,7 +12533,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="47"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <f>EDATE(A383,1)</f>
         <v>42887</v>
@@ -12553,7 +12560,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>256</v>
@@ -12573,7 +12580,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <f>EDATE(A386,1)</f>
         <v>42917</v>
@@ -12602,7 +12609,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>259</v>
@@ -12622,7 +12629,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f>EDATE(A388,1)</f>
         <v>42948</v>
@@ -12649,7 +12656,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>260</v>
@@ -12669,7 +12676,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>59</v>
@@ -12691,7 +12698,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>263</v>
@@ -12711,7 +12718,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="47"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <f>EDATE(A390,1)</f>
         <v>42979</v>
@@ -12736,7 +12743,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f t="shared" si="4"/>
         <v>43009</v>
@@ -12763,7 +12770,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>266</v>
@@ -12783,7 +12790,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <f>EDATE(A395,1)</f>
         <v>43040</v>
@@ -12810,7 +12817,7 @@
         <v>43052</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <f t="shared" si="4"/>
         <v>43070</v>
@@ -12835,7 +12842,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>59</v>
@@ -12857,7 +12864,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>59</v>
@@ -12879,7 +12886,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>47</v>
@@ -12901,7 +12908,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="46" t="s">
         <v>246</v>
       </c>
@@ -12919,7 +12926,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f>EDATE(A398,1)</f>
         <v>43101</v>
@@ -12944,7 +12951,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <f t="shared" si="4"/>
         <v>43132</v>
@@ -12971,7 +12978,7 @@
         <v>43136</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f t="shared" si="4"/>
         <v>43160</v>
@@ -12998,7 +13005,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <f t="shared" ref="A406:A464" si="5">EDATE(A405,1)</f>
         <v>43191</v>
@@ -13019,7 +13026,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <f t="shared" si="5"/>
         <v>43221</v>
@@ -13040,7 +13047,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <f t="shared" si="5"/>
         <v>43252</v>
@@ -13067,7 +13074,7 @@
         <v>43276</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <f t="shared" si="5"/>
         <v>43282</v>
@@ -13092,7 +13099,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>69</v>
@@ -13112,7 +13119,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <f>EDATE(A409,1)</f>
         <v>43313</v>
@@ -13139,7 +13146,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>59</v>
@@ -13161,7 +13168,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <f>EDATE(A411,1)</f>
         <v>43344</v>
@@ -13188,7 +13195,7 @@
         <v>43360</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <f t="shared" si="5"/>
         <v>43374</v>
@@ -13215,7 +13222,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>59</v>
@@ -13237,7 +13244,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <f>EDATE(A414,1)</f>
         <v>43405</v>
@@ -13258,7 +13265,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <f t="shared" si="5"/>
         <v>43435</v>
@@ -13285,7 +13292,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>65</v>
@@ -13307,7 +13314,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="46" t="s">
         <v>247</v>
       </c>
@@ -13325,7 +13332,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <f>EDATE(A417,1)</f>
         <v>43466</v>
@@ -13352,7 +13359,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <f t="shared" si="5"/>
         <v>43497</v>
@@ -13373,7 +13380,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <f t="shared" si="5"/>
         <v>43525</v>
@@ -13400,7 +13407,7 @@
         <v>43542</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <f t="shared" si="5"/>
         <v>43556</v>
@@ -13427,7 +13434,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <f t="shared" si="5"/>
         <v>43586</v>
@@ -13448,7 +13455,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f t="shared" si="5"/>
         <v>43617</v>
@@ -13475,7 +13482,7 @@
         <v>43619</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <f t="shared" si="5"/>
         <v>43647</v>
@@ -13502,7 +13509,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>69</v>
@@ -13522,7 +13529,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <f>EDATE(A426,1)</f>
         <v>43678</v>
@@ -13547,7 +13554,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <f t="shared" si="5"/>
         <v>43709</v>
@@ -13574,7 +13581,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>65</v>
@@ -13596,7 +13603,7 @@
         <v>43766</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <f>EDATE(A429,1)</f>
         <v>43739</v>
@@ -13617,7 +13624,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <f t="shared" si="5"/>
         <v>43770</v>
@@ -13644,7 +13651,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>282</v>
@@ -13666,7 +13673,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <f>EDATE(A432,1)</f>
         <v>43800</v>
@@ -13687,7 +13694,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="46" t="s">
         <v>248</v>
       </c>
@@ -13705,7 +13712,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <f>EDATE(A434,1)</f>
         <v>43831</v>
@@ -13732,7 +13739,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <f t="shared" si="5"/>
         <v>43862</v>
@@ -13753,7 +13760,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <f t="shared" si="5"/>
         <v>43891</v>
@@ -13774,7 +13781,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <f t="shared" si="5"/>
         <v>43922</v>
@@ -13795,7 +13802,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="47"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <f t="shared" si="5"/>
         <v>43952</v>
@@ -13816,7 +13823,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <f t="shared" si="5"/>
         <v>43983</v>
@@ -13837,7 +13844,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <f t="shared" si="5"/>
         <v>44013</v>
@@ -13858,7 +13865,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="47"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <f t="shared" si="5"/>
         <v>44044</v>
@@ -13879,7 +13886,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <f t="shared" si="5"/>
         <v>44075</v>
@@ -13900,7 +13907,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <f t="shared" si="5"/>
         <v>44105</v>
@@ -13921,7 +13928,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <f t="shared" si="5"/>
         <v>44136</v>
@@ -13942,7 +13949,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <f t="shared" si="5"/>
         <v>44166</v>
@@ -13969,7 +13976,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="46" t="s">
         <v>287</v>
       </c>
@@ -13987,7 +13994,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <f>EDATE(A447,1)</f>
         <v>44197</v>
@@ -14014,7 +14021,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f t="shared" si="5"/>
         <v>44228</v>
@@ -14035,7 +14042,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <f t="shared" si="5"/>
         <v>44256</v>
@@ -14056,7 +14063,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <f t="shared" si="5"/>
         <v>44287</v>
@@ -14077,7 +14084,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <f t="shared" si="5"/>
         <v>44317</v>
@@ -14098,7 +14105,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <f t="shared" si="5"/>
         <v>44348</v>
@@ -14119,7 +14126,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <f t="shared" si="5"/>
         <v>44378</v>
@@ -14140,7 +14147,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <f t="shared" si="5"/>
         <v>44409</v>
@@ -14161,7 +14168,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <f t="shared" si="5"/>
         <v>44440</v>
@@ -14182,7 +14189,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <f t="shared" si="5"/>
         <v>44470</v>
@@ -14203,7 +14210,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <f t="shared" si="5"/>
         <v>44501</v>
@@ -14224,7 +14231,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <f t="shared" si="5"/>
         <v>44531</v>
@@ -14251,7 +14258,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="46" t="s">
         <v>290</v>
       </c>
@@ -14269,7 +14276,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <f>EDATE(A460,1)</f>
         <v>44562</v>
@@ -14290,7 +14297,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <f t="shared" si="5"/>
         <v>44593</v>
@@ -14311,7 +14318,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <f t="shared" si="5"/>
         <v>44621</v>
@@ -14338,7 +14345,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>310</v>
@@ -14358,7 +14365,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <f>EDATE(A464,1)</f>
         <v>44652</v>
@@ -14385,7 +14392,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>307</v>
@@ -14405,7 +14412,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <f>EDATE(A466,1)</f>
         <v>44682</v>
@@ -14432,7 +14439,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>306</v>
@@ -14452,7 +14459,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="47"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <f>EDATE(A468,1)</f>
         <v>44713</v>
@@ -14479,7 +14486,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>305</v>
@@ -14499,7 +14506,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="47"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <f>EDATE(A470,1)</f>
         <v>44743</v>
@@ -14526,7 +14533,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>304</v>
@@ -14546,7 +14553,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="47"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <f>EDATE(A472,1)</f>
         <v>44774</v>
@@ -14573,7 +14580,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="50"/>
       <c r="B475" s="20" t="s">
         <v>59</v>
@@ -14595,7 +14602,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>301</v>
@@ -14617,7 +14624,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>303</v>
@@ -14637,7 +14644,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="47"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>44805</v>
       </c>
@@ -14661,7 +14668,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>44835</v>
       </c>
@@ -14687,7 +14694,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>298</v>
@@ -14709,7 +14716,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>299</v>
@@ -14729,7 +14736,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="47"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>44866</v>
       </c>
@@ -14755,7 +14762,7 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>65</v>
@@ -14777,7 +14784,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>297</v>
@@ -14797,7 +14804,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="47"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>44896</v>
       </c>
@@ -14823,7 +14830,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>296</v>
@@ -14843,7 +14850,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="46" t="s">
         <v>293</v>
       </c>
@@ -14861,7 +14868,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>44927</v>
       </c>
@@ -14881,7 +14888,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>44958</v>
       </c>
@@ -14901,7 +14908,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>44986</v>
       </c>
@@ -14921,7 +14928,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>45017</v>
       </c>
@@ -14947,7 +14954,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>45047</v>
       </c>
@@ -14973,7 +14980,7 @@
         <v>45069</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>45078</v>
       </c>
@@ -14999,7 +15006,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="50">
         <v>45108</v>
       </c>
@@ -15019,7 +15026,7 @@
       <c r="J494" s="12"/>
       <c r="K494" s="15"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>45139</v>
       </c>
@@ -15043,7 +15050,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>65</v>
@@ -15065,7 +15072,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>45170</v>
       </c>
@@ -15085,7 +15092,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>45200</v>
       </c>
@@ -15111,7 +15118,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>65</v>
@@ -15133,7 +15140,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>59</v>
@@ -15155,7 +15162,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>45231</v>
       </c>
@@ -15175,7 +15182,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>45261</v>
       </c>
@@ -15198,6 +15205,348 @@
       <c r="K502" s="20" t="s">
         <v>313</v>
       </c>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A503" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="B503" s="20"/>
+      <c r="C503" s="13"/>
+      <c r="D503" s="39"/>
+      <c r="E503" s="9"/>
+      <c r="F503" s="20"/>
+      <c r="G503" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H503" s="39"/>
+      <c r="I503" s="9"/>
+      <c r="J503" s="11"/>
+      <c r="K503" s="20"/>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A504" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B504" s="20"/>
+      <c r="C504" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D504" s="39"/>
+      <c r="E504" s="9"/>
+      <c r="F504" s="20"/>
+      <c r="G504" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H504" s="39"/>
+      <c r="I504" s="9"/>
+      <c r="J504" s="11"/>
+      <c r="K504" s="20"/>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A505" s="40"/>
+      <c r="B505" s="20"/>
+      <c r="C505" s="13"/>
+      <c r="D505" s="39"/>
+      <c r="E505" s="9"/>
+      <c r="F505" s="20"/>
+      <c r="G505" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H505" s="39"/>
+      <c r="I505" s="9"/>
+      <c r="J505" s="11"/>
+      <c r="K505" s="20"/>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A506" s="40"/>
+      <c r="B506" s="20"/>
+      <c r="C506" s="13"/>
+      <c r="D506" s="39"/>
+      <c r="E506" s="9"/>
+      <c r="F506" s="20"/>
+      <c r="G506" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H506" s="39"/>
+      <c r="I506" s="9"/>
+      <c r="J506" s="11"/>
+      <c r="K506" s="20"/>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A507" s="40"/>
+      <c r="B507" s="20"/>
+      <c r="C507" s="13"/>
+      <c r="D507" s="39"/>
+      <c r="E507" s="9"/>
+      <c r="F507" s="20"/>
+      <c r="G507" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H507" s="39"/>
+      <c r="I507" s="9"/>
+      <c r="J507" s="11"/>
+      <c r="K507" s="20"/>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A508" s="40"/>
+      <c r="B508" s="20"/>
+      <c r="C508" s="13"/>
+      <c r="D508" s="39"/>
+      <c r="E508" s="9"/>
+      <c r="F508" s="20"/>
+      <c r="G508" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H508" s="39"/>
+      <c r="I508" s="9"/>
+      <c r="J508" s="11"/>
+      <c r="K508" s="20"/>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A509" s="40"/>
+      <c r="B509" s="20"/>
+      <c r="C509" s="13"/>
+      <c r="D509" s="39"/>
+      <c r="E509" s="9"/>
+      <c r="F509" s="20"/>
+      <c r="G509" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H509" s="39"/>
+      <c r="I509" s="9"/>
+      <c r="J509" s="11"/>
+      <c r="K509" s="20"/>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A510" s="40"/>
+      <c r="B510" s="20"/>
+      <c r="C510" s="13"/>
+      <c r="D510" s="39"/>
+      <c r="E510" s="9"/>
+      <c r="F510" s="20"/>
+      <c r="G510" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H510" s="39"/>
+      <c r="I510" s="9"/>
+      <c r="J510" s="11"/>
+      <c r="K510" s="20"/>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A511" s="40"/>
+      <c r="B511" s="20"/>
+      <c r="C511" s="13"/>
+      <c r="D511" s="39"/>
+      <c r="E511" s="9"/>
+      <c r="F511" s="20"/>
+      <c r="G511" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H511" s="39"/>
+      <c r="I511" s="9"/>
+      <c r="J511" s="11"/>
+      <c r="K511" s="20"/>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A512" s="40"/>
+      <c r="B512" s="20"/>
+      <c r="C512" s="13"/>
+      <c r="D512" s="39"/>
+      <c r="E512" s="9"/>
+      <c r="F512" s="20"/>
+      <c r="G512" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H512" s="39"/>
+      <c r="I512" s="9"/>
+      <c r="J512" s="11"/>
+      <c r="K512" s="20"/>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A513" s="40"/>
+      <c r="B513" s="20"/>
+      <c r="C513" s="13"/>
+      <c r="D513" s="39"/>
+      <c r="E513" s="9"/>
+      <c r="F513" s="20"/>
+      <c r="G513" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H513" s="39"/>
+      <c r="I513" s="9"/>
+      <c r="J513" s="11"/>
+      <c r="K513" s="20"/>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A514" s="40"/>
+      <c r="B514" s="20"/>
+      <c r="C514" s="13"/>
+      <c r="D514" s="39"/>
+      <c r="E514" s="9"/>
+      <c r="F514" s="20"/>
+      <c r="G514" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H514" s="39"/>
+      <c r="I514" s="9"/>
+      <c r="J514" s="11"/>
+      <c r="K514" s="20"/>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A515" s="40"/>
+      <c r="B515" s="20"/>
+      <c r="C515" s="13"/>
+      <c r="D515" s="39"/>
+      <c r="E515" s="9"/>
+      <c r="F515" s="20"/>
+      <c r="G515" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H515" s="39"/>
+      <c r="I515" s="9"/>
+      <c r="J515" s="11"/>
+      <c r="K515" s="20"/>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A516" s="40"/>
+      <c r="B516" s="20"/>
+      <c r="C516" s="13"/>
+      <c r="D516" s="39"/>
+      <c r="E516" s="9"/>
+      <c r="F516" s="20"/>
+      <c r="G516" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H516" s="39"/>
+      <c r="I516" s="9"/>
+      <c r="J516" s="11"/>
+      <c r="K516" s="20"/>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A517" s="40"/>
+      <c r="B517" s="20"/>
+      <c r="C517" s="13"/>
+      <c r="D517" s="39"/>
+      <c r="E517" s="9"/>
+      <c r="F517" s="20"/>
+      <c r="G517" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H517" s="39"/>
+      <c r="I517" s="9"/>
+      <c r="J517" s="11"/>
+      <c r="K517" s="20"/>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A518" s="40"/>
+      <c r="B518" s="20"/>
+      <c r="C518" s="13"/>
+      <c r="D518" s="39"/>
+      <c r="E518" s="9"/>
+      <c r="F518" s="20"/>
+      <c r="G518" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H518" s="39"/>
+      <c r="I518" s="9"/>
+      <c r="J518" s="11"/>
+      <c r="K518" s="20"/>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A519" s="40"/>
+      <c r="B519" s="20"/>
+      <c r="C519" s="13"/>
+      <c r="D519" s="39"/>
+      <c r="E519" s="9"/>
+      <c r="F519" s="20"/>
+      <c r="G519" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H519" s="39"/>
+      <c r="I519" s="9"/>
+      <c r="J519" s="11"/>
+      <c r="K519" s="20"/>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A520" s="40"/>
+      <c r="B520" s="20"/>
+      <c r="C520" s="13"/>
+      <c r="D520" s="39"/>
+      <c r="E520" s="9"/>
+      <c r="F520" s="20"/>
+      <c r="G520" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H520" s="39"/>
+      <c r="I520" s="9"/>
+      <c r="J520" s="11"/>
+      <c r="K520" s="20"/>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A521" s="40"/>
+      <c r="B521" s="20"/>
+      <c r="C521" s="13"/>
+      <c r="D521" s="39"/>
+      <c r="E521" s="9"/>
+      <c r="F521" s="20"/>
+      <c r="G521" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H521" s="39"/>
+      <c r="I521" s="9"/>
+      <c r="J521" s="11"/>
+      <c r="K521" s="20"/>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A522" s="40"/>
+      <c r="B522" s="20"/>
+      <c r="C522" s="13"/>
+      <c r="D522" s="39"/>
+      <c r="E522" s="9"/>
+      <c r="F522" s="20"/>
+      <c r="G522" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H522" s="39"/>
+      <c r="I522" s="9"/>
+      <c r="J522" s="11"/>
+      <c r="K522" s="20"/>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A523" s="50"/>
+      <c r="B523" s="15"/>
+      <c r="C523" s="41"/>
+      <c r="D523" s="42"/>
+      <c r="E523" s="9"/>
+      <c r="F523" s="15"/>
+      <c r="G523" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H523" s="42"/>
+      <c r="I523" s="9"/>
+      <c r="J523" s="12"/>
+      <c r="K523" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15214,10 +15563,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15240,29 +15589,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -15275,7 +15624,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -15304,7 +15653,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1.125</v>
       </c>
@@ -15332,17 +15681,20 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>315</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -15363,7 +15715,11 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>280.57399999999996</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -15390,7 +15746,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -15416,7 +15772,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -15442,7 +15798,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -15468,7 +15824,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -15494,7 +15850,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -15520,7 +15876,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15546,7 +15902,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -15572,7 +15928,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -15592,7 +15948,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -15612,7 +15968,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -15632,7 +15988,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -15653,7 +16009,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -15674,7 +16030,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -15695,7 +16051,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -15716,7 +16072,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15737,7 +16093,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15758,7 +16114,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15779,7 +16135,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15800,7 +16156,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15821,7 +16177,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15842,7 +16198,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -15863,7 +16219,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -15884,7 +16240,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -15905,7 +16261,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -15926,7 +16282,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -15947,7 +16303,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -15968,7 +16324,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -15989,7 +16345,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16010,7 +16366,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16031,7 +16387,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16052,7 +16408,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16061,7 +16417,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16070,7 +16426,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16079,7 +16435,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16088,7 +16444,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16097,7 +16453,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16106,7 +16462,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16115,7 +16471,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16124,7 +16480,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16133,7 +16489,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16142,7 +16498,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16151,7 +16507,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -16160,7 +16516,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -16169,7 +16525,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -16178,7 +16534,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -16187,7 +16543,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -16196,7 +16552,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -16205,7 +16561,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -16214,7 +16570,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -16223,7 +16579,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -16232,7 +16588,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -16241,7 +16597,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -16250,7 +16606,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -16259,7 +16615,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -16268,7 +16624,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -16277,7 +16633,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -16286,7 +16642,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -16295,7 +16651,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -16304,7 +16660,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -16313,7 +16669,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
